--- a/data/main.xlsx
+++ b/data/main.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-05-07 22:12:49.348267</t>
+          <t>2023-05-09 22:46:04.343073</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-05-07 22:13:00.407430</t>
+          <t>2023-05-09 22:46:09.393336</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-05-07 22:13:12.742995</t>
+          <t>2023-05-09 22:46:14.510530</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-05-07 22:13:17.814439</t>
+          <t>2023-05-09 22:46:19.590489</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-05-09 22:46:24.671800</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-05-09 22:46:46.655423</t>
         </is>
       </c>
     </row>
